--- a/outputs-r202/g__F23-D06.xlsx
+++ b/outputs-r202/g__F23-D06.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -569,6 +574,11 @@
           <t>s__F23-D06 sp900315245</t>
         </is>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>s__F23-D06 sp900315245</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -623,6 +633,11 @@
           <t>s__F23-D06 sp900315705</t>
         </is>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>s__F23-D06 sp900315705</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -677,6 +692,11 @@
           <t>s__F23-D06 sp900316305</t>
         </is>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>s__F23-D06 sp900316305</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -731,6 +751,11 @@
           <t>s__F23-D06 sp900317715</t>
         </is>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>s__F23-D06 sp900317715</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -785,6 +810,11 @@
           <t>s__F23-D06 sp900315705</t>
         </is>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>s__F23-D06 sp900315705</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -835,6 +865,11 @@
         <v>0.9936705776162384</v>
       </c>
       <c r="P7" t="inlineStr">
+        <is>
+          <t>s__F23-D06 sp900319925</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>s__F23-D06 sp900319925</t>
         </is>
